--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,1119 +1,865 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="272">
   <si>
     <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田</t>
+  </si>
+  <si>
+    <t>早高峰</t>
   </si>
   <si>
     <t>000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小爱</t>
   </si>
   <si>
     <t>000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟超</t>
+  </si>
+  <si>
+    <t>晚高峰</t>
   </si>
   <si>
     <t>000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
   <si>
     <t>000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡普</t>
+  </si>
+  <si>
+    <t>商务部门</t>
   </si>
   <si>
     <t>000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白菜</t>
   </si>
   <si>
     <t>000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔滕斯</t>
   </si>
   <si>
     <t>000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科贝尔</t>
   </si>
   <si>
     <t>000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨巴</t>
   </si>
   <si>
     <t>000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小威</t>
   </si>
   <si>
     <t>000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大威</t>
   </si>
   <si>
     <t>000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴蒂</t>
   </si>
   <si>
     <t>000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃兹</t>
   </si>
   <si>
     <t>000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡萨</t>
   </si>
   <si>
     <t>000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格格</t>
   </si>
   <si>
     <t>000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯斯</t>
   </si>
   <si>
     <t>000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅尔滕斯</t>
   </si>
   <si>
     <t>000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蔷</t>
   </si>
   <si>
     <t>000020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加西亚</t>
   </si>
   <si>
     <t>000021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆古鲁扎</t>
   </si>
   <si>
     <t>000022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥胖</t>
   </si>
   <si>
     <t>000023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本西奇</t>
   </si>
   <si>
     <t>000024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李娜</t>
   </si>
   <si>
     <t>000025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿扎</t>
   </si>
   <si>
     <t>000026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢淑薇</t>
   </si>
   <si>
     <t>000027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克妈</t>
   </si>
   <si>
     <t>000028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛吉斯</t>
   </si>
   <si>
     <t>000029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞莱斯</t>
   </si>
   <si>
     <t>000030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨拉波娃</t>
   </si>
   <si>
     <t>000031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐步</t>
   </si>
   <si>
     <t>000032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维基奇</t>
   </si>
   <si>
     <t>000033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊万</t>
   </si>
   <si>
     <t>000034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨科</t>
   </si>
   <si>
     <t>000035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文奇</t>
   </si>
   <si>
     <t>000036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩内塔</t>
   </si>
   <si>
     <t>000037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考特</t>
   </si>
   <si>
     <t>000038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃拉尼</t>
   </si>
   <si>
     <t>000039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭帅</t>
   </si>
   <si>
     <t>000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张帅</t>
   </si>
   <si>
     <t>000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德约</t>
+  </si>
+  <si>
+    <t>行政部门</t>
   </si>
   <si>
     <t>000042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳达尔</t>
   </si>
   <si>
     <t>000043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费德勒</t>
   </si>
   <si>
     <t>000044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兹</t>
   </si>
   <si>
     <t>000045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师兄</t>
   </si>
   <si>
     <t>000046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德森</t>
   </si>
   <si>
     <t>000047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西里奇</t>
   </si>
   <si>
     <t>000048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒂姆</t>
   </si>
   <si>
     <t>000049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦织圭</t>
   </si>
   <si>
     <t>000050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊斯内尔</t>
   </si>
   <si>
     <t>000051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡恰</t>
   </si>
   <si>
     <t>000052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘里奇</t>
   </si>
   <si>
     <t>000053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福格尼尼</t>
   </si>
   <si>
     <t>000054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西西帕斯</t>
   </si>
   <si>
     <t>000055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉奥</t>
   </si>
   <si>
     <t>000056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪米</t>
   </si>
   <si>
     <t>000057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈芬</t>
   </si>
   <si>
     <t>000058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿古特</t>
   </si>
   <si>
     <t>000059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑玄</t>
   </si>
   <si>
     <t>000060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙</t>
   </si>
   <si>
     <t>000061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰逊</t>
   </si>
   <si>
     <t>000062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞皮</t>
   </si>
   <si>
     <t>000063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米尔曼</t>
   </si>
   <si>
     <t>000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查迪</t>
   </si>
   <si>
     <t>000065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里赞</t>
   </si>
   <si>
     <t>000066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索萨</t>
   </si>
   <si>
     <t>000067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈赛</t>
   </si>
   <si>
     <t>000068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝克尔</t>
   </si>
   <si>
     <t>000069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿加西</t>
   </si>
   <si>
     <t>000070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱恩</t>
   </si>
   <si>
     <t>000071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆雷</t>
   </si>
   <si>
     <t>000072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦林卡</t>
   </si>
   <si>
     <t>000073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马胡</t>
   </si>
   <si>
     <t>000074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特松佳</t>
   </si>
   <si>
     <t>000075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴迪</t>
   </si>
   <si>
     <t>000076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张泽</t>
   </si>
   <si>
     <t>000077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林黛玉</t>
+  </si>
+  <si>
+    <t>听众</t>
   </si>
   <si>
     <t>000078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛宝钗</t>
   </si>
   <si>
     <t>000079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾宝玉</t>
   </si>
   <si>
     <t>000080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾元春</t>
   </si>
   <si>
     <t>000081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探春</t>
   </si>
   <si>
     <t>000082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜春</t>
   </si>
   <si>
     <t>000083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李纨</t>
   </si>
   <si>
     <t>000084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙玉</t>
   </si>
   <si>
     <t>000085</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史湘云</t>
   </si>
   <si>
     <t>000086</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王熙凤</t>
   </si>
   <si>
     <t>000087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧姐</t>
   </si>
   <si>
     <t>000088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦可卿</t>
   </si>
   <si>
     <t>000089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦钟</t>
   </si>
   <si>
     <t>000090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴雯</t>
   </si>
   <si>
     <t>000091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麝月</t>
   </si>
   <si>
     <t>000092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袭人</t>
   </si>
   <si>
     <t>000093</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯</t>
   </si>
   <si>
     <t>000094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪雁</t>
   </si>
   <si>
     <t>000095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫鹃</t>
   </si>
   <si>
     <t>000096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧痕</t>
   </si>
   <si>
     <t>000097</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平儿</t>
   </si>
   <si>
     <t>000098</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香莲</t>
   </si>
   <si>
     <t>000099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金川</t>
   </si>
   <si>
     <t>000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思琪</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>抱琴</t>
+  </si>
+  <si>
+    <t>000102</t>
+  </si>
+  <si>
+    <t>贾政</t>
+  </si>
+  <si>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>贾赦</t>
+  </si>
+  <si>
+    <t>000104</t>
+  </si>
+  <si>
+    <t>贾敬</t>
+  </si>
+  <si>
+    <t>000105</t>
+  </si>
+  <si>
+    <t>贾琏</t>
+  </si>
+  <si>
+    <t>000106</t>
+  </si>
+  <si>
+    <t>贾环</t>
+  </si>
+  <si>
+    <t>000107</t>
+  </si>
+  <si>
+    <t>贾珍</t>
+  </si>
+  <si>
+    <t>000108</t>
+  </si>
+  <si>
+    <t>贾蓉</t>
+  </si>
+  <si>
+    <t>000109</t>
+  </si>
+  <si>
+    <t>贾云</t>
+  </si>
+  <si>
+    <t>000200</t>
+  </si>
+  <si>
+    <t>琪官</t>
+  </si>
+  <si>
+    <t>000209</t>
+  </si>
+  <si>
+    <t>芳官</t>
+  </si>
+  <si>
+    <t>000208</t>
+  </si>
+  <si>
+    <t>藕官</t>
+  </si>
+  <si>
+    <t>000207</t>
+  </si>
+  <si>
+    <t>药官</t>
+  </si>
+  <si>
+    <t>000206</t>
+  </si>
+  <si>
+    <t>蕊官</t>
+  </si>
+  <si>
+    <t>000205</t>
+  </si>
+  <si>
+    <t>玉官</t>
+  </si>
+  <si>
+    <t>000204</t>
+  </si>
+  <si>
+    <t>龄官</t>
+  </si>
+  <si>
+    <t>000203</t>
+  </si>
+  <si>
+    <t>宝官</t>
+  </si>
+  <si>
+    <t>000202</t>
+  </si>
+  <si>
+    <t>茄官</t>
+  </si>
+  <si>
+    <t>000201</t>
+  </si>
+  <si>
+    <t>碧昂丝</t>
+  </si>
+  <si>
+    <t>000211</t>
+  </si>
+  <si>
+    <t>麦丹娜</t>
+  </si>
+  <si>
+    <t>000300</t>
+  </si>
+  <si>
+    <t>布兰妮</t>
+  </si>
+  <si>
+    <t>000301</t>
+  </si>
+  <si>
+    <t>蕾哈娜</t>
+  </si>
+  <si>
+    <t>000302</t>
+  </si>
+  <si>
+    <t>阿黛尔</t>
+  </si>
+  <si>
+    <t>000303</t>
+  </si>
+  <si>
+    <t>GAGA</t>
+  </si>
+  <si>
+    <t>000304</t>
+  </si>
+  <si>
+    <t>水果姐</t>
+  </si>
+  <si>
+    <t>000305</t>
+  </si>
+  <si>
+    <t>A妹</t>
+  </si>
+  <si>
+    <t>000306</t>
+  </si>
+  <si>
+    <t>贾老板</t>
+  </si>
+  <si>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>阿姆</t>
+  </si>
+  <si>
+    <t>000308</t>
+  </si>
+  <si>
+    <t>火星哥</t>
+  </si>
+  <si>
+    <t>000309</t>
+  </si>
+  <si>
+    <t>林肯公园</t>
   </si>
   <si>
     <t>000400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾薇儿</t>
   </si>
   <si>
     <t>000401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰勒</t>
   </si>
   <si>
     <t>000402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSAKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈勒普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科维托娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科贝尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王蔷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加西亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆古鲁扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本西奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢淑薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛吉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞莱斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨拉波娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维基奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩内塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃拉尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳达尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费德勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒂姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦织圭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊斯内尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡恰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福格尼尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西西帕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿古特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米尔曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克里赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿加西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特松佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红楼梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林黛玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛宝钗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾宝玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾元春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惜春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李纨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史湘云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王熙凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦可卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麝月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袭人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪雁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫鹃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾赦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾敬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾琏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芳官</t>
-  </si>
-  <si>
-    <t>藕官</t>
-  </si>
-  <si>
-    <t>药官</t>
-  </si>
-  <si>
-    <t>蕊官</t>
-  </si>
-  <si>
-    <t>玉官</t>
-  </si>
-  <si>
-    <t>龄官</t>
-  </si>
-  <si>
-    <t>宝官</t>
-  </si>
-  <si>
-    <t>茄官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琪官</t>
-  </si>
-  <si>
-    <t>碧昂丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦丹娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布兰妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕾哈娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿黛尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林肯公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾薇儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUSIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1121,13 +867,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1135,11 +879,161 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,8 +1046,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1176,9 +1256,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,101 +1508,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1294,7 +1592,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1362,23 +1660,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1414,23 +1695,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1572,26 +1836,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="26.752380952381" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="26.75" style="1"/>
+    <col min="1" max="16384" width="26.752380952381" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1607,1489 +1866,1489 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:1">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:1">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:1">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:1">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:1">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:1">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:1">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:1">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:1">
       <c r="A143" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>